--- a/biology/Médecine/Premier_hôpital_de_Riga/Premier_hôpital_de_Riga.xlsx
+++ b/biology/Médecine/Premier_hôpital_de_Riga/Premier_hôpital_de_Riga.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Premier_h%C3%B4pital_de_Riga</t>
+          <t>Premier_hôpital_de_Riga</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le premier hôpital de Riga (en letton : Rīgas 1. slimnīca) est un hôpital situé dans le district central de Rīga en Lettonie.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Premier_h%C3%B4pital_de_Riga</t>
+          <t>Premier_hôpital_de_Riga</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Présentation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le premier hôpital de Riga est un établissement médical letton situé au centre de Riga. 
 Depuis 2010, l'hôpital propose une large gamme d'examens diagnostiques, de traitements ambulatoires et hospitaliers, ainsi que de rééducation et de soins sociaux de courte durée. 
@@ -528,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Premier_h%C3%B4pital_de_Riga</t>
+          <t>Premier_hôpital_de_Riga</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,9 +560,11 @@
           <t>Services hospitaliers</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>L'hôpital est organisé comme suit[1],[2]:
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>L'hôpital est organisé comme suit,:
 Clinique ambulatoire
 Polyclinique des Chevaliers (1er bâtiment)
 Polyclinique de Charlotte (bâtiment 23)
@@ -584,7 +600,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Premier_h%C3%B4pital_de_Riga</t>
+          <t>Premier_hôpital_de_Riga</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -603,6 +619,8 @@
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
